--- a/frontend/web/uploads/file_name.xlsx
+++ b/frontend/web/uploads/file_name.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>1-sinf</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>2021-09-20 12:00:06</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;sdsd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-03 11:24:33</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +595,26 @@
       </c>
       <c r="F7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
